--- a/Files/Vaccine_April 23, 2010.xlsx
+++ b/Files/Vaccine_April 23, 2010.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="235">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Kinrix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 5 pack - 1 dose T-L syringes </t>
+    <t xml:space="preserve">10 pack - 1 dose vials </t>
   </si>
   <si>
     <t xml:space="preserve">$32.75</t>
@@ -107,6 +107,9 @@
     <t xml:space="preserve">$48.00</t>
   </si>
   <si>
+    <t xml:space="preserve">5 pack - 1 dose T-L syringes </t>
+  </si>
+  <si>
     <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
@@ -149,7 +152,7 @@
     <t xml:space="preserve">$24.709</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B </t>
+    <t xml:space="preserve">Hepatitis B-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -179,12 +182,12 @@
     <t xml:space="preserve">Havrix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 10 pack - 1 dose T-L syringes. No Needle </t>
-  </si>
-  <si>
     <t xml:space="preserve">$28.74</t>
   </si>
   <si>
+    <t xml:space="preserve">10 pack - 1 dose T-L syringes. No Needle </t>
+  </si>
+  <si>
     <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
@@ -203,7 +206,7 @@
     <t xml:space="preserve">$89.85</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis BPediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
@@ -218,7 +221,7 @@
     <t xml:space="preserve">10 pack - 1 dose T-L syringes, No Needle</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B PediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">RECOMBIVAX HB</t>
@@ -329,7 +332,7 @@
     <t xml:space="preserve">$48.31</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal13-valent  (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13</t>
@@ -501,9 +504,6 @@
   </si>
   <si>
     <t xml:space="preserve">$42.581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetanus  DiphtheriaToxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tetanus  Diphtheria Toxoids
@@ -550,7 +550,7 @@
     <t xml:space="preserve">Zostavax</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vial 1 pack-single dose 0.65mL vials </t>
+    <t xml:space="preserve">10 pack - 1 dose vial </t>
   </si>
   <si>
     <t xml:space="preserve">$105.943</t>
@@ -559,13 +559,16 @@
     <t xml:space="preserve">$153.93</t>
   </si>
   <si>
+    <t xml:space="preserve">1 pack-single dose 0.65mL vials </t>
+  </si>
+  <si>
     <t xml:space="preserve">$116.70</t>
   </si>
   <si>
     <t xml:space="preserve">$161.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
+    <t xml:space="preserve">Influenza   (Age 6 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
@@ -577,7 +580,7 @@
     <t xml:space="preserve">$11.17</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 6-35 months)</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone
@@ -594,19 +597,19 @@
     <t xml:space="preserve">$13.16</t>
   </si>
   <si>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$9.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$12.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No-Preservative</t>
+  </si>
+  <si>
     <t xml:space="preserve">Influenza (Age 36 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$9.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$12.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No-Preservative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Influenza(Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluarix
@@ -622,7 +625,7 @@
     <t xml:space="preserve">$10.98</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza   (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluvirin</t>
@@ -643,7 +646,7 @@
     <t xml:space="preserve">$12.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza Live, Intranasal (Age 2-49 years)</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
   </si>
   <si>
     <t xml:space="preserve">FluMist
@@ -702,7 +705,7 @@
   </si>
   <si>
     <t xml:space="preserve">Fluvirin
-&amp;gt;Preservative-free</t>
+Preservative-free</t>
   </si>
   <si>
     <t xml:space="preserve">Fluraix
@@ -1046,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -1066,10 +1069,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1078,10 +1081,10 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1">
         <v>40633</v>
@@ -1095,22 +1098,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1">
         <v>40633</v>
@@ -1124,22 +1127,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1">
         <v>40633</v>
@@ -1153,10 +1156,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1165,16 +1168,16 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="1">
         <v>40633</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -1182,10 +1185,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1194,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1">
         <v>40633</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -1211,16 +1214,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1240,16 +1243,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -1269,10 +1272,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1281,10 +1284,10 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="1">
         <v>40633</v>
@@ -1298,22 +1301,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G16" s="1">
         <v>40633</v>
@@ -1327,10 +1330,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1339,10 +1342,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G17" s="1">
         <v>40633</v>
@@ -1356,22 +1359,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
         <v>66</v>
-      </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
       </c>
       <c r="G18" s="1">
         <v>40633</v>
@@ -1385,10 +1388,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -1397,16 +1400,16 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G19" s="1">
         <v>40633</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -1414,10 +1417,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1426,16 +1429,16 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G20" s="1">
         <v>40633</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -1443,22 +1446,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" s="1">
         <v>40633</v>
@@ -1472,10 +1475,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1484,10 +1487,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G22" s="1">
         <v>40633</v>
@@ -1501,10 +1504,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1513,16 +1516,16 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G23" s="1">
         <v>40633</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -1530,10 +1533,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1542,10 +1545,10 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G24" s="1">
         <v>40633</v>
@@ -1559,22 +1562,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" t="s">
         <v>88</v>
-      </c>
-      <c r="E25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" t="s">
-        <v>87</v>
       </c>
       <c r="G25" s="1">
         <v>40633</v>
@@ -1588,10 +1591,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -1600,16 +1603,16 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G26" s="1">
         <v>40633</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -1617,22 +1620,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G27" s="1">
         <v>40633</v>
@@ -1646,28 +1649,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G28" s="1">
         <v>40633</v>
       </c>
       <c r="H28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -1675,10 +1678,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -1687,16 +1690,16 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G29" s="1">
         <v>40633</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -1704,28 +1707,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G30" s="1">
         <v>40633</v>
       </c>
       <c r="H30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -1733,10 +1736,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -1745,16 +1748,16 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G31" s="1">
         <v>40633</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -1762,28 +1765,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G32" s="1">
         <v>40633</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
@@ -1791,10 +1794,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1803,10 +1806,10 @@
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G33" s="1">
         <v>40633</v>
@@ -1820,22 +1823,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G34" s="1">
         <v>40633</v>
@@ -1849,10 +1852,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1861,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G35" s="1">
         <v>40633</v>
@@ -1878,10 +1881,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1890,16 +1893,16 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="1">
+        <v>40633</v>
+      </c>
+      <c r="H36" t="s">
         <v>128</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="1">
-        <v>40633</v>
-      </c>
-      <c r="H36" t="s">
-        <v>127</v>
       </c>
       <c r="I36" t="s">
         <v>11</v>
@@ -1907,10 +1910,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -1919,10 +1922,10 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G37" s="1">
         <v>40633</v>
@@ -1936,22 +1939,22 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" t="s">
         <v>133</v>
-      </c>
-      <c r="E38" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" t="s">
-        <v>132</v>
       </c>
       <c r="G38" s="1">
         <v>40633</v>
@@ -1965,22 +1968,22 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G39" s="1">
         <v>40633</v>
@@ -1994,22 +1997,22 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" t="s">
         <v>137</v>
-      </c>
-      <c r="E40" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" t="s">
-        <v>136</v>
       </c>
       <c r="G40" s="1">
         <v>40633</v>
@@ -2023,10 +2026,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -2035,16 +2038,16 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G41" s="1">
         <v>40633</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s">
         <v>11</v>
@@ -2097,10 +2100,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -2109,10 +2112,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G2" s="1">
         <v>40359</v>
@@ -2126,22 +2129,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G3" s="1">
         <v>40359</v>
@@ -2155,10 +2158,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2167,10 +2170,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1">
         <v>40359</v>
@@ -2184,22 +2187,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5" s="1">
         <v>40359</v>
@@ -2213,10 +2216,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2225,10 +2228,10 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G6" s="1">
         <v>40359</v>
@@ -2242,22 +2245,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G7" s="1">
         <v>40359</v>
@@ -2271,10 +2274,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -2283,16 +2286,16 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G8" s="1">
         <v>40359</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -2300,10 +2303,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -2312,10 +2315,10 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1">
         <v>40359</v>
@@ -2329,22 +2332,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G10" s="1">
         <v>40359</v>
@@ -2358,10 +2361,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -2370,16 +2373,16 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G11" s="1">
         <v>40359</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -2387,28 +2390,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G12" s="1">
         <v>40359</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -2416,28 +2419,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G13" s="1">
         <v>40359</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -2445,7 +2448,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
         <v>163</v>
@@ -2474,7 +2477,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
         <v>166</v>
@@ -2495,7 +2498,7 @@
         <v>40359</v>
       </c>
       <c r="H15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -2503,7 +2506,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
         <v>167</v>
@@ -2518,7 +2521,7 @@
         <v>168</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G16" s="1">
         <v>40359</v>
@@ -2532,7 +2535,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
         <v>167</v>
@@ -2547,7 +2550,7 @@
         <v>168</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G17" s="1">
         <v>40359</v>
@@ -2561,7 +2564,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
         <v>170</v>
@@ -2576,7 +2579,7 @@
         <v>168</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G18" s="1">
         <v>40359</v>
@@ -2590,7 +2593,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
         <v>170</v>
@@ -2605,7 +2608,7 @@
         <v>168</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="1">
         <v>40359</v>
@@ -2622,7 +2625,7 @@
         <v>173</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -2634,13 +2637,13 @@
         <v>174</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="1">
         <v>40359</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -2669,7 +2672,7 @@
         <v>40359</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
@@ -2686,19 +2689,19 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G22" s="1">
         <v>40359</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -2751,22 +2754,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G2" s="1">
         <v>40602</v>
@@ -2780,22 +2783,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G3" s="1">
         <v>40602</v>
@@ -2809,22 +2812,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G4" s="1">
         <v>40602</v>
@@ -2838,10 +2841,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -2850,10 +2853,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G5" s="1">
         <v>40602</v>
@@ -2867,22 +2870,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G6" s="1">
         <v>40602</v>
@@ -2896,28 +2899,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G7" s="1">
         <v>40602</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -2925,19 +2928,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -2946,7 +2949,7 @@
         <v>40602</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -2954,28 +2957,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G9" s="1">
         <v>40602</v>
       </c>
       <c r="H9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -2983,28 +2986,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G10" s="1">
         <v>40602</v>
       </c>
       <c r="H10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -3012,28 +3015,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1">
         <v>40602</v>
       </c>
       <c r="H11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -3041,28 +3044,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G12" s="1">
         <v>40602</v>
       </c>
       <c r="H12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -3115,22 +3118,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G2" s="1">
         <v>40602</v>
@@ -3144,22 +3147,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G3" s="1">
         <v>40602</v>
@@ -3173,10 +3176,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -3185,10 +3188,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G4" s="1">
         <v>40602</v>
@@ -3202,19 +3205,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -3223,7 +3226,7 @@
         <v>40602</v>
       </c>
       <c r="H5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -3231,28 +3234,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G6" s="1">
         <v>40602</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -3260,19 +3263,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -3281,7 +3284,7 @@
         <v>40602</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -3289,22 +3292,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G8" s="1">
         <v>40602</v>
@@ -3318,22 +3321,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G9" s="1">
         <v>40602</v>
@@ -3347,28 +3350,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G10" s="1">
         <v>40602</v>
       </c>
       <c r="H10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>

--- a/Files/Vaccine_April 23, 2010.xlsx
+++ b/Files/Vaccine_April 23, 2010.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="234">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -506,9 +506,7 @@
     <t xml:space="preserve">$42.581</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  Diphtheria Toxoids
-Adsorbed for Adults
-No Preservative</t>
+    <t xml:space="preserve">Tetanus  Diphtheria Toxoids Adsorbed for Adults No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">$18.23</t>
@@ -583,9 +581,7 @@
     <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-Pediatric dose
-No Preservative</t>
+    <t xml:space="preserve">Fluzone Pediatric dose No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose syringes</t>
@@ -612,8 +608,7 @@
     <t xml:space="preserve">Influenza (Age 36 months and older)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Preservative-Free</t>
+    <t xml:space="preserve">Fluarix Preservative-Free</t>
   </si>
   <si>
     <t xml:space="preserve">5 pack - 1 dose TipLok syringes</t>
@@ -649,8 +644,7 @@
     <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
   </si>
   <si>
-    <t xml:space="preserve">FluMist
-No Preservative</t>
+    <t xml:space="preserve">FluMist No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose sprayers</t>
@@ -665,8 +659,7 @@
     <t xml:space="preserve">MedImmune</t>
   </si>
   <si>
-    <t xml:space="preserve">Afluria
-No Preservative</t>
+    <t xml:space="preserve">Afluria No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">$10.75</t>
@@ -675,8 +668,7 @@
     <t xml:space="preserve">$12.25</t>
   </si>
   <si>
-    <t xml:space="preserve">Merck
-(CSL product)</t>
+    <t xml:space="preserve">Merck (CSL product)</t>
   </si>
   <si>
     <t xml:space="preserve">Afluria</t>
@@ -697,19 +689,13 @@
     <t xml:space="preserve">No Preservative</t>
   </si>
   <si>
-    <t xml:space="preserve">Agriflu
-No Preservative</t>
+    <t xml:space="preserve">Agriflu No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">Influenza  </t>
   </si>
   <si>
-    <t xml:space="preserve">Fluvirin
-Preservative-free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluraix
-Preservative-free</t>
+    <t xml:space="preserve">Fluraix Preservative-free</t>
   </si>
   <si>
     <t xml:space="preserve">5 pack - 1 dose syringe</t>
@@ -727,8 +713,7 @@
     <t xml:space="preserve">$7.83</t>
   </si>
   <si>
-    <t xml:space="preserve">Flumist
-No Preservative</t>
+    <t xml:space="preserve">Flumist No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack-1 dose sprayers</t>
@@ -3266,7 +3251,7 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -3295,13 +3280,13 @@
         <v>222</v>
       </c>
       <c r="B8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>227</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>228</v>
       </c>
       <c r="E8" t="s">
         <v>199</v>
@@ -3324,19 +3309,19 @@
         <v>225</v>
       </c>
       <c r="B9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>229</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>230</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>231</v>
-      </c>
-      <c r="F9" t="s">
-        <v>232</v>
       </c>
       <c r="G9" s="1">
         <v>40602</v>
@@ -3353,13 +3338,13 @@
         <v>222</v>
       </c>
       <c r="B10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>233</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>234</v>
       </c>
       <c r="E10" t="s">
         <v>211</v>
